--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PR_COA_SEC_AgencyObjectProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PR_COA_SEC_AgencyObjectProfile_AddNewProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\MStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A4F2C-7924-42B3-B253-5FEEFBED7191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462300C2-9DC6-4656-9E55-A3E6E08A36DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>Keyword</t>
   </si>
@@ -91,9 +91,6 @@
     <t>getConfigData=ExpDate</t>
   </si>
   <si>
-    <t>button_saveDetails_ocp</t>
-  </si>
-  <si>
     <t>getData=SaveButton</t>
   </si>
   <si>
@@ -118,24 +115,9 @@
     <t>Offset3</t>
   </si>
   <si>
-    <t>txt_title_aop</t>
-  </si>
-  <si>
     <t>dropdown_approYear_aop</t>
   </si>
   <si>
-    <t>dropdown_agency_aop</t>
-  </si>
-  <si>
-    <t>toggle_setStatus_aop</t>
-  </si>
-  <si>
-    <t>date_startdate_aop</t>
-  </si>
-  <si>
-    <t>date_enddate_aop</t>
-  </si>
-  <si>
     <t>dropdown_agencyObjectGroup_aop</t>
   </si>
   <si>
@@ -190,23 +172,68 @@
     <t>AgencyObj</t>
   </si>
   <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAINTENANCE </t>
-  </si>
-  <si>
     <t>AutoDemo91</t>
   </si>
   <si>
     <t xml:space="preserve"> J02 - J02 </t>
+  </si>
+  <si>
+    <t>smallWaitForElementPresent</t>
+  </si>
+  <si>
+    <t>getData=WaitForPageLoad</t>
+  </si>
+  <si>
+    <t>link_agencyObjectProfile_wait</t>
+  </si>
+  <si>
+    <t>txt_title</t>
+  </si>
+  <si>
+    <t>txt_startdate</t>
+  </si>
+  <si>
+    <t>txt_endDate</t>
+  </si>
+  <si>
+    <t>button_setStatus</t>
+  </si>
+  <si>
+    <t>dropdown_agency</t>
+  </si>
+  <si>
+    <t>button_saveDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 - TEST 26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E - EXP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M - MAINTENANCE </t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0102 - ADDITIONAL ASSISTANCE </t>
+  </si>
+  <si>
+    <t>dropdown_comptrollerObject_Opt_aop</t>
+  </si>
+  <si>
+    <t>verifyElementNotPresent</t>
+  </si>
+  <si>
+    <t>txt_last_proc_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,16 +249,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,21 +324,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,16 +618,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
@@ -630,101 +656,107 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -732,43 +764,76 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +847,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,9 +863,9 @@
     <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -816,43 +881,43 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -863,30 +928,32 @@
         <v>9001</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>2023</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="5">
-        <v>65</v>
-      </c>
-      <c r="L2" s="5">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
